--- a/questions.xlsx
+++ b/questions.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
